--- a/src/data/test_data.xlsx
+++ b/src/data/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaide\MySeleniumProj\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B43DCC-DD2A-44E7-B9F8-DEC06052477D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFD742F-1C67-441C-A4C9-935318B8413E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>TextToEnter</t>
   </si>
@@ -50,6 +50,13 @@
   </si>
   <si>
     <t>Clover: Credit Card Processing for Small Businesses | POS ...</t>
+  </si>
+  <si>
+    <t>yahoo</t>
+  </si>
+  <si>
+    <t>www.clover.com
+Clover - Credit Card Processing for Small Businesses | POS ...</t>
   </si>
 </sst>
 </file>
@@ -108,13 +115,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -396,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="A1:C3"/>
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -442,6 +452,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -449,10 +470,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BF86AB-2B3B-4350-9ADF-A2D1A47A89FC}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,6 +516,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
